--- a/data/case1/11/Plm1_13.xlsx
+++ b/data/case1/11/Plm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.069095911913564123</v>
+        <v>-0.072935418983419709</v>
       </c>
       <c r="B1" s="0">
-        <v>0.069036454797412716</v>
+        <v>0.072813847406081322</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.016173635623047744</v>
+        <v>-0.00063708338208279258</v>
       </c>
       <c r="B2" s="0">
-        <v>0.016032577041119822</v>
+        <v>0.00014888658588319004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.086897664338170699</v>
+        <v>0.10278360103213302</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.087074987850950691</v>
+        <v>-0.10315800843015666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19691795337818263</v>
+        <v>-0.18083865424986101</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19599548673718203</v>
+        <v>0.17995019019635095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18999548711736214</v>
+        <v>-0.17395019038274384</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18813089842800768</v>
+        <v>0.17216960330022335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.067453209094781474</v>
+        <v>-0.059879446679754977</v>
       </c>
       <c r="B6" s="0">
-        <v>0.067389471639184517</v>
+        <v>0.059834267735672242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.047389472110261011</v>
+        <v>-0.039834267962124414</v>
       </c>
       <c r="B7" s="0">
-        <v>0.047273754783667243</v>
+        <v>0.039761272083040922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.027273755257776422</v>
+        <v>-0.019761272310697464</v>
       </c>
       <c r="B8" s="0">
-        <v>0.027220927657323202</v>
+        <v>0.019730770887114168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.021220928059062061</v>
+        <v>-0.061488524460273197</v>
       </c>
       <c r="B9" s="0">
-        <v>0.021188800248046924</v>
+        <v>0.061178403399488879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.015188800651792178</v>
+        <v>-0.055178403597807346</v>
       </c>
       <c r="B10" s="0">
-        <v>0.015189160627009812</v>
+        <v>0.055132332857048993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.010689161022831684</v>
+        <v>-0.051473598501129203</v>
       </c>
       <c r="B11" s="0">
-        <v>0.010688533375887488</v>
+        <v>0.051394321058346293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0046885337800754989</v>
+        <v>-0.045394321257450354</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0046852985174026252</v>
+        <v>0.045151483778357981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0013147010777947443</v>
+        <v>-0.039151483980573332</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0013161915886641395</v>
+        <v>0.039085215650225713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.013316191151784729</v>
+        <v>-0.027085215867558077</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.013331084063983312</v>
+        <v>0.027052984899937904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.01933108365991032</v>
+        <v>-0.021052985103785282</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.019361169855280025</v>
+        <v>0.021027596391659742</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026305408699425</v>
+        <v>-0.015027596596164372</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0150041848596425</v>
+        <v>0.015004643515456717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041852641880027</v>
+        <v>-0.0090046437208419761</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999578903406</v>
+        <v>0.0089999997873313475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.042862819570601118</v>
+        <v>-0.062176764218133229</v>
       </c>
       <c r="B18" s="0">
-        <v>0.04284511781503042</v>
+        <v>0.062138303200473644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.033845118206377478</v>
+        <v>-0.053138303392644026</v>
       </c>
       <c r="B19" s="0">
-        <v>0.033731512029886446</v>
+        <v>0.05286701199510313</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.024731512425805846</v>
+        <v>-0.018014084048367351</v>
       </c>
       <c r="B20" s="0">
-        <v>0.024716034877554804</v>
+        <v>0.018004314040345193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.015716035274296658</v>
+        <v>-0.0090043142362441486</v>
       </c>
       <c r="B21" s="0">
-        <v>0.015705087646983529</v>
+        <v>0.0089999998039242968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093930241771206013</v>
+        <v>-0.093932487810018728</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622938822173651</v>
+        <v>0.093624102184801217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622939217561033</v>
+        <v>-0.084624102378434429</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124499260197716</v>
+        <v>0.084124846493379479</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124499839141905</v>
+        <v>-0.042124846768051505</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999417690503</v>
+        <v>0.041999999723906889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.11467768972814696</v>
+        <v>-0.09333737643110851</v>
       </c>
       <c r="B25" s="0">
-        <v>0.11450075273178228</v>
+        <v>0.093166431159701801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.10751516262469707</v>
+        <v>-0.087166431353214335</v>
       </c>
       <c r="B26" s="0">
-        <v>0.10729442135446376</v>
+        <v>0.086951867392862425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.10129442175414383</v>
+        <v>-0.080951867587313764</v>
       </c>
       <c r="B27" s="0">
-        <v>0.10053906915237221</v>
+        <v>0.080239305606954137</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.078290620527731392</v>
+        <v>-0.074239305805482658</v>
       </c>
       <c r="B28" s="0">
-        <v>0.077958775242626288</v>
+        <v>0.073760615066041701</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.065958775691058236</v>
+        <v>-0.061760615281293951</v>
       </c>
       <c r="B29" s="0">
-        <v>0.065812931161417509</v>
+        <v>0.061540814051348036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0421626216962534</v>
+        <v>-0.04216708291430793</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018933225408173</v>
+        <v>0.042020129415034635</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018933697117831</v>
+        <v>-0.027020129640584756</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000755332119653</v>
+        <v>0.027000929783906003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007558367143332</v>
+        <v>-0.0060009300239682872</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995756410129</v>
+        <v>0.0059999997953248396</v>
       </c>
     </row>
   </sheetData>
